--- a/VerbTense3 Repo.xlsx
+++ b/VerbTense3 Repo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellencooper/Google Drive/Work Stuff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E6F766-EF52-5744-A107-EFE85A44A61D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99139A1E-F7CD-9649-AE01-F7E3EFB202AB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22140" windowHeight="17440" xr2:uid="{7AD3E968-A2FA-6A4F-A1F0-6A6EA1657324}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29760" windowHeight="17440" xr2:uid="{7AD3E968-A2FA-6A4F-A1F0-6A6EA1657324}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>Verb</t>
   </si>
@@ -147,13 +147,16 @@
   </si>
   <si>
     <t>"review"</t>
+  </si>
+  <si>
+    <t>""</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -192,8 +195,15 @@
       <name val="Courier"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,6 +213,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -215,11 +231,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -229,8 +246,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="40% - Accent2" xfId="2" builtinId="35"/>
     <cellStyle name="Accent5" xfId="1" builtinId="45"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -544,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{731B37DC-ACF1-234A-A17D-C606963CFA3B}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G18"/>
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -590,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f t="shared" ref="D2:D18" si="0">"verbTense(" &amp; ROW(A2)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; A2</f>
+        <f t="shared" ref="D2:D19" si="0">"verbTense(" &amp; ROW(A2)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; A2</f>
         <v>verbTense(1, 1) = "automation of"</v>
       </c>
       <c r="E2" s="3" t="str">
-        <f t="shared" ref="E2:E18" si="1">"verbTense(" &amp; ROW(A2)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B2</f>
+        <f t="shared" ref="E2:E19" si="1">"verbTense(" &amp; ROW(A2)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B2</f>
         <v>verbTense(1, 2) = "automate"</v>
       </c>
       <c r="F2" s="3" t="str">
-        <f t="shared" ref="F2:F18" si="2">"verbTense(" &amp; ROW(A2)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C2</f>
+        <f t="shared" ref="F2:F19" si="2">"verbTense(" &amp; ROW(A2)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C2</f>
         <v>verbTense(1, 3) = "N"</v>
       </c>
       <c r="G2" s="3" t="str">
-        <f t="shared" ref="G2:G18" si="3" xml:space="preserve"> D2 &amp; " : " &amp; E2 &amp; " : " &amp; F2</f>
+        <f t="shared" ref="G2:G19" si="3" xml:space="preserve"> D2 &amp; " : " &amp; E2 &amp; " : " &amp; F2</f>
         <v>verbTense(1, 1) = "automation of" : verbTense(1, 2) = "automate" : verbTense(1, 3) = "N"</v>
       </c>
     </row>
@@ -1036,6 +1055,33 @@
       <c r="G18" s="3" t="str">
         <f t="shared" si="3"/>
         <v>verbTense(17, 1) = "review of" : verbTense(17, 2) = "review" : verbTense(17, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>verbTense(18, 1) = ""</v>
+      </c>
+      <c r="E19" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>verbTense(18, 2) = ""</v>
+      </c>
+      <c r="F19" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>verbTense(18, 3) = "N"</v>
+      </c>
+      <c r="G19" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>verbTense(18, 1) = "" : verbTense(18, 2) = "" : verbTense(18, 3) = "N"</v>
       </c>
     </row>
   </sheetData>

--- a/VerbTense3 Repo.xlsx
+++ b/VerbTense3 Repo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellencooper/Google Drive/Work Stuff/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PaperlessBeta\To Do\Ellen\Macros\Repositories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99139A1E-F7CD-9649-AE01-F7E3EFB202AB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BB5CF2-BBFE-4CB1-A22D-210B863758C1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29760" windowHeight="17440" xr2:uid="{7AD3E968-A2FA-6A4F-A1F0-6A6EA1657324}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{7AD3E968-A2FA-6A4F-A1F0-6A6EA1657324}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -565,23 +566,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{731B37DC-ACF1-234A-A17D-C606963CFA3B}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A22:A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="45.83203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="46.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="26.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="45.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="46.625" style="3" customWidth="1"/>
     <col min="6" max="6" width="26.5" style="3" customWidth="1"/>
     <col min="7" max="7" width="119" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="3"/>
+    <col min="8" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -897,7 +898,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>34</v>
@@ -907,7 +908,7 @@
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(12, 1) = "involve in"</v>
+        <v>verbTense(12, 1) = "involved in"</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="1"/>
@@ -919,12 +920,12 @@
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(12, 1) = "involve in" : verbTense(12, 2) = "be involved in" : verbTense(12, 3) = "N"</v>
+        <v>verbTense(12, 1) = "involved in" : verbTense(12, 2) = "be involved in" : verbTense(12, 3) = "N"</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>34</v>
@@ -934,7 +935,7 @@
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(13, 1) = "involved in"</v>
+        <v>verbTense(13, 1) = "involve in"</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="1"/>
@@ -946,7 +947,7 @@
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(13, 1) = "involved in" : verbTense(13, 2) = "be involved in" : verbTense(13, 3) = "N"</v>
+        <v>verbTense(13, 1) = "involve in" : verbTense(13, 2) = "be involved in" : verbTense(13, 3) = "N"</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">

--- a/VerbTense3 Repo.xlsx
+++ b/VerbTense3 Repo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PaperlessBeta\To Do\Ellen\Macros\Repositories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BB5CF2-BBFE-4CB1-A22D-210B863758C1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2DB9B9-48DA-48DB-9C3D-EA0D56BD31E8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{7AD3E968-A2FA-6A4F-A1F0-6A6EA1657324}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
   <si>
     <t>Verb</t>
   </si>
@@ -151,6 +151,24 @@
   </si>
   <si>
     <t>""</t>
+  </si>
+  <si>
+    <t>"integration of"</t>
+  </si>
+  <si>
+    <t>"integrate"</t>
+  </si>
+  <si>
+    <t>"understand of"</t>
+  </si>
+  <si>
+    <t>"understand"</t>
+  </si>
+  <si>
+    <t>"diagnosis of"</t>
+  </si>
+  <si>
+    <t>"diagnose"</t>
   </si>
 </sst>
 </file>
@@ -564,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{731B37DC-ACF1-234A-A17D-C606963CFA3B}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A22:A23"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -610,19 +628,19 @@
         <v>4</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f t="shared" ref="D2:D19" si="0">"verbTense(" &amp; ROW(A2)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; A2</f>
+        <f t="shared" ref="D2:D22" si="0">"verbTense(" &amp; ROW(A2)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; A2</f>
         <v>verbTense(1, 1) = "automation of"</v>
       </c>
       <c r="E2" s="3" t="str">
-        <f t="shared" ref="E2:E19" si="1">"verbTense(" &amp; ROW(A2)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B2</f>
+        <f t="shared" ref="E2:E22" si="1">"verbTense(" &amp; ROW(A2)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B2</f>
         <v>verbTense(1, 2) = "automate"</v>
       </c>
       <c r="F2" s="3" t="str">
-        <f t="shared" ref="F2:F19" si="2">"verbTense(" &amp; ROW(A2)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C2</f>
+        <f t="shared" ref="F2:F22" si="2">"verbTense(" &amp; ROW(A2)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C2</f>
         <v>verbTense(1, 3) = "N"</v>
       </c>
       <c r="G2" s="3" t="str">
-        <f t="shared" ref="G2:G19" si="3" xml:space="preserve"> D2 &amp; " : " &amp; E2 &amp; " : " &amp; F2</f>
+        <f t="shared" ref="G2:G22" si="3" xml:space="preserve"> D2 &amp; " : " &amp; E2 &amp; " : " &amp; F2</f>
         <v>verbTense(1, 1) = "automation of" : verbTense(1, 2) = "automate" : verbTense(1, 3) = "N"</v>
       </c>
     </row>
@@ -790,48 +808,48 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(8, 1) = "experience in"</v>
+        <v>verbTense(8, 1) = "diagnosis of"</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(8, 2) = "apply experience in"</v>
+        <v>verbTense(8, 2) = "diagnose"</v>
       </c>
       <c r="F9" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>verbTense(8, 3) = "Y"</v>
+        <v>verbTense(8, 3) = "N"</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(8, 1) = "experience in" : verbTense(8, 2) = "apply experience in" : verbTense(8, 3) = "Y"</v>
+        <v>verbTense(8, 1) = "diagnosis of" : verbTense(8, 2) = "diagnose" : verbTense(8, 3) = "N"</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(9, 1) = "expertise in"</v>
+        <v>verbTense(9, 1) = "experience in"</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(9, 2) = "apply expertise in"</v>
+        <v>verbTense(9, 2) = "apply experience in"</v>
       </c>
       <c r="F10" s="3" t="str">
         <f t="shared" si="2"/>
@@ -839,53 +857,53 @@
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(9, 1) = "expertise in" : verbTense(9, 2) = "apply expertise in" : verbTense(9, 3) = "Y"</v>
+        <v>verbTense(9, 1) = "experience in" : verbTense(9, 2) = "apply experience in" : verbTense(9, 3) = "Y"</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(10, 1) = "fixing of"</v>
+        <v>verbTense(10, 1) = "expertise in"</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(10, 2) = "fix"</v>
+        <v>verbTense(10, 2) = "apply expertise in"</v>
       </c>
       <c r="F11" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>verbTense(10, 3) = "N"</v>
+        <v>verbTense(10, 3) = "Y"</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(10, 1) = "fixing of" : verbTense(10, 2) = "fix" : verbTense(10, 3) = "N"</v>
+        <v>verbTense(10, 1) = "expertise in" : verbTense(10, 2) = "apply expertise in" : verbTense(10, 3) = "Y"</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(11, 1) = "interaction with"</v>
+        <v>verbTense(11, 1) = "fixing of"</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(11, 2) = "interact with"</v>
+        <v>verbTense(11, 2) = "fix"</v>
       </c>
       <c r="F12" s="3" t="str">
         <f t="shared" si="2"/>
@@ -893,26 +911,26 @@
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(11, 1) = "interaction with" : verbTense(11, 2) = "interact with" : verbTense(11, 3) = "N"</v>
+        <v>verbTense(11, 1) = "fixing of" : verbTense(11, 2) = "fix" : verbTense(11, 3) = "N"</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(12, 1) = "involved in"</v>
+        <v>verbTense(12, 1) = "integration of"</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(12, 2) = "be involved in"</v>
+        <v>verbTense(12, 2) = "integrate"</v>
       </c>
       <c r="F13" s="3" t="str">
         <f t="shared" si="2"/>
@@ -920,26 +938,26 @@
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(12, 1) = "involved in" : verbTense(12, 2) = "be involved in" : verbTense(12, 3) = "N"</v>
+        <v>verbTense(12, 1) = "integration of" : verbTense(12, 2) = "integrate" : verbTense(12, 3) = "N"</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(13, 1) = "involve in"</v>
+        <v>verbTense(13, 1) = "interaction with"</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(13, 2) = "be involved in"</v>
+        <v>verbTense(13, 2) = "interact with"</v>
       </c>
       <c r="F14" s="3" t="str">
         <f t="shared" si="2"/>
@@ -947,26 +965,26 @@
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(13, 1) = "involve in" : verbTense(13, 2) = "be involved in" : verbTense(13, 3) = "N"</v>
+        <v>verbTense(13, 1) = "interaction with" : verbTense(13, 2) = "interact with" : verbTense(13, 3) = "N"</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(14, 1) = "participation in"</v>
+        <v>verbTense(14, 1) = "involved in"</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(14, 2) = "participate in"</v>
+        <v>verbTense(14, 2) = "be involved in"</v>
       </c>
       <c r="F15" s="3" t="str">
         <f t="shared" si="2"/>
@@ -974,26 +992,26 @@
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(14, 1) = "participation in" : verbTense(14, 2) = "participate in" : verbTense(14, 3) = "N"</v>
+        <v>verbTense(14, 1) = "involved in" : verbTense(14, 2) = "be involved in" : verbTense(14, 3) = "N"</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(15, 1) = "preparation of"</v>
+        <v>verbTense(15, 1) = "involve in"</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(15, 2) = "prepare"</v>
+        <v>verbTense(15, 2) = "be involved in"</v>
       </c>
       <c r="F16" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1001,26 +1019,26 @@
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(15, 1) = "preparation of" : verbTense(15, 2) = "prepare" : verbTense(15, 3) = "N"</v>
+        <v>verbTense(15, 1) = "involve in" : verbTense(15, 2) = "be involved in" : verbTense(15, 3) = "N"</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(16, 1) = "prioritization of"</v>
+        <v>verbTense(16, 1) = "participation in"</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(16, 2) = "prioritize"</v>
+        <v>verbTense(16, 2) = "participate in"</v>
       </c>
       <c r="F17" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1028,61 +1046,142 @@
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(16, 1) = "prioritization of" : verbTense(16, 2) = "prioritize" : verbTense(16, 3) = "N"</v>
+        <v>verbTense(16, 1) = "participation in" : verbTense(16, 2) = "participate in" : verbTense(16, 3) = "N"</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>verbTense(17, 1) = "preparation of"</v>
+      </c>
+      <c r="E18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>verbTense(17, 2) = "prepare"</v>
+      </c>
+      <c r="F18" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>verbTense(17, 3) = "N"</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>verbTense(17, 1) = "preparation of" : verbTense(17, 2) = "prepare" : verbTense(17, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>verbTense(18, 1) = "prioritization of"</v>
+      </c>
+      <c r="E19" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>verbTense(18, 2) = "prioritize"</v>
+      </c>
+      <c r="F19" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>verbTense(18, 3) = "N"</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>verbTense(18, 1) = "prioritization of" : verbTense(18, 2) = "prioritize" : verbTense(18, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>verbTense(17, 1) = "review of"</v>
-      </c>
-      <c r="E18" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>verbTense(17, 2) = "review"</v>
-      </c>
-      <c r="F18" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>verbTense(17, 3) = "N"</v>
-      </c>
-      <c r="G18" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>verbTense(17, 1) = "review of" : verbTense(17, 2) = "review" : verbTense(17, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="C20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>verbTense(19, 1) = "review of"</v>
+      </c>
+      <c r="E20" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>verbTense(19, 2) = "review"</v>
+      </c>
+      <c r="F20" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>verbTense(19, 3) = "N"</v>
+      </c>
+      <c r="G20" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>verbTense(19, 1) = "review of" : verbTense(19, 2) = "review" : verbTense(19, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>verbTense(20, 1) = "understand of"</v>
+      </c>
+      <c r="E21" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>verbTense(20, 2) = "understand"</v>
+      </c>
+      <c r="F21" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>verbTense(20, 3) = "N"</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>verbTense(20, 1) = "understand of" : verbTense(20, 2) = "understand" : verbTense(20, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>verbTense(18, 1) = ""</v>
-      </c>
-      <c r="E19" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>verbTense(18, 2) = ""</v>
-      </c>
-      <c r="F19" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>verbTense(18, 3) = "N"</v>
-      </c>
-      <c r="G19" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>verbTense(18, 1) = "" : verbTense(18, 2) = "" : verbTense(18, 3) = "N"</v>
+      <c r="C22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>verbTense(21, 1) = ""</v>
+      </c>
+      <c r="E22" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>verbTense(21, 2) = ""</v>
+      </c>
+      <c r="F22" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>verbTense(21, 3) = "N"</v>
+      </c>
+      <c r="G22" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>verbTense(21, 1) = "" : verbTense(21, 2) = "" : verbTense(21, 3) = "N"</v>
       </c>
     </row>
   </sheetData>

--- a/VerbTense3 Repo.xlsx
+++ b/VerbTense3 Repo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PaperlessBeta\To Do\Ellen\Macros\Repositories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\TECNYFS1\Evaluations\PaperlessBeta\To Do\Ellen\Macros-Ideas\Repositories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2DB9B9-48DA-48DB-9C3D-EA0D56BD31E8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE02448-AC40-4391-88AE-C64E7767A385}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{7AD3E968-A2FA-6A4F-A1F0-6A6EA1657324}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
   <si>
     <t>Verb</t>
   </si>
@@ -169,6 +169,18 @@
   </si>
   <si>
     <t>"diagnose"</t>
+  </si>
+  <si>
+    <t>"implementation of"</t>
+  </si>
+  <si>
+    <t>"implement"</t>
+  </si>
+  <si>
+    <t>"customization of"</t>
+  </si>
+  <si>
+    <t>"customize"</t>
   </si>
 </sst>
 </file>
@@ -582,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{731B37DC-ACF1-234A-A17D-C606963CFA3B}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="G2" sqref="G2:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -628,19 +640,19 @@
         <v>4</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f t="shared" ref="D2:D22" si="0">"verbTense(" &amp; ROW(A2)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; A2</f>
+        <f t="shared" ref="D2:D14" si="0">"verbTense(" &amp; ROW(A2)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; A2</f>
         <v>verbTense(1, 1) = "automation of"</v>
       </c>
       <c r="E2" s="3" t="str">
-        <f t="shared" ref="E2:E22" si="1">"verbTense(" &amp; ROW(A2)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B2</f>
+        <f t="shared" ref="E2:E14" si="1">"verbTense(" &amp; ROW(A2)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B2</f>
         <v>verbTense(1, 2) = "automate"</v>
       </c>
       <c r="F2" s="3" t="str">
-        <f t="shared" ref="F2:F22" si="2">"verbTense(" &amp; ROW(A2)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C2</f>
+        <f t="shared" ref="F2:F13" si="2">"verbTense(" &amp; ROW(A2)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C2</f>
         <v>verbTense(1, 3) = "N"</v>
       </c>
       <c r="G2" s="3" t="str">
-        <f t="shared" ref="G2:G22" si="3" xml:space="preserve"> D2 &amp; " : " &amp; E2 &amp; " : " &amp; F2</f>
+        <f t="shared" ref="G2:G24" si="3" xml:space="preserve"> D2 &amp; " : " &amp; E2 &amp; " : " &amp; F2</f>
         <v>verbTense(1, 1) = "automation of" : verbTense(1, 2) = "automate" : verbTense(1, 3) = "N"</v>
       </c>
     </row>
@@ -754,21 +766,21 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(6, 1) = "deployment of"</v>
+        <v>verbTense(6, 1) = "customization of"</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(6, 2) = "deploy"</v>
+        <v>verbTense(6, 2) = "customize"</v>
       </c>
       <c r="F7" s="3" t="str">
         <f t="shared" si="2"/>
@@ -776,26 +788,26 @@
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(6, 1) = "deployment of" : verbTense(6, 2) = "deploy" : verbTense(6, 3) = "N"</v>
+        <v>verbTense(6, 1) = "customization of" : verbTense(6, 2) = "customize" : verbTense(6, 3) = "N"</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(7, 1) = "development of"</v>
+        <v>verbTense(7, 1) = "deployment of"</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(7, 2) = "develop"</v>
+        <v>verbTense(7, 2) = "deploy"</v>
       </c>
       <c r="F8" s="3" t="str">
         <f t="shared" si="2"/>
@@ -803,26 +815,26 @@
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(7, 1) = "development of" : verbTense(7, 2) = "develop" : verbTense(7, 3) = "N"</v>
+        <v>verbTense(7, 1) = "deployment of" : verbTense(7, 2) = "deploy" : verbTense(7, 3) = "N"</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(8, 1) = "diagnosis of"</v>
+        <v>verbTense(8, 1) = "development of"</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(8, 2) = "diagnose"</v>
+        <v>verbTense(8, 2) = "develop"</v>
       </c>
       <c r="F9" s="3" t="str">
         <f t="shared" si="2"/>
@@ -830,53 +842,53 @@
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(8, 1) = "diagnosis of" : verbTense(8, 2) = "diagnose" : verbTense(8, 3) = "N"</v>
+        <v>verbTense(8, 1) = "development of" : verbTense(8, 2) = "develop" : verbTense(8, 3) = "N"</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(9, 1) = "experience in"</v>
+        <v>verbTense(9, 1) = "diagnosis of"</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(9, 2) = "apply experience in"</v>
+        <v>verbTense(9, 2) = "diagnose"</v>
       </c>
       <c r="F10" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>verbTense(9, 3) = "Y"</v>
+        <v>verbTense(9, 3) = "N"</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(9, 1) = "experience in" : verbTense(9, 2) = "apply experience in" : verbTense(9, 3) = "Y"</v>
+        <v>verbTense(9, 1) = "diagnosis of" : verbTense(9, 2) = "diagnose" : verbTense(9, 3) = "N"</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(10, 1) = "expertise in"</v>
+        <v>verbTense(10, 1) = "experience in"</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(10, 2) = "apply expertise in"</v>
+        <v>verbTense(10, 2) = "apply experience in"</v>
       </c>
       <c r="F11" s="3" t="str">
         <f t="shared" si="2"/>
@@ -884,53 +896,53 @@
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(10, 1) = "expertise in" : verbTense(10, 2) = "apply expertise in" : verbTense(10, 3) = "Y"</v>
+        <v>verbTense(10, 1) = "experience in" : verbTense(10, 2) = "apply experience in" : verbTense(10, 3) = "Y"</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(11, 1) = "fixing of"</v>
+        <v>verbTense(11, 1) = "expertise in"</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(11, 2) = "fix"</v>
+        <v>verbTense(11, 2) = "apply expertise in"</v>
       </c>
       <c r="F12" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>verbTense(11, 3) = "N"</v>
+        <v>verbTense(11, 3) = "Y"</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(11, 1) = "fixing of" : verbTense(11, 2) = "fix" : verbTense(11, 3) = "N"</v>
+        <v>verbTense(11, 1) = "expertise in" : verbTense(11, 2) = "apply expertise in" : verbTense(11, 3) = "Y"</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(12, 1) = "integration of"</v>
+        <v>verbTense(12, 1) = "fixing of"</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(12, 2) = "integrate"</v>
+        <v>verbTense(12, 2) = "fix"</v>
       </c>
       <c r="F13" s="3" t="str">
         <f t="shared" si="2"/>
@@ -938,250 +950,304 @@
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(12, 1) = "integration of" : verbTense(12, 2) = "integrate" : verbTense(12, 3) = "N"</v>
+        <v>verbTense(12, 1) = "fixing of" : verbTense(12, 2) = "fix" : verbTense(12, 3) = "N"</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(13, 1) = "interaction with"</v>
+        <v>verbTense(13, 1) = "implementation of"</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(13, 2) = "interact with"</v>
+        <v>verbTense(13, 2) = "implement"</v>
       </c>
       <c r="F14" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F14" si="4">"verbTense(" &amp; ROW(A14)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C14</f>
         <v>verbTense(13, 3) = "N"</v>
       </c>
       <c r="G14" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>verbTense(13, 1) = "interaction with" : verbTense(13, 2) = "interact with" : verbTense(13, 3) = "N"</v>
+        <f t="shared" ref="G14" si="5" xml:space="preserve"> D14 &amp; " : " &amp; E14 &amp; " : " &amp; F14</f>
+        <v>verbTense(13, 1) = "implementation of" : verbTense(13, 2) = "implement" : verbTense(13, 3) = "N"</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>verbTense(14, 1) = "involved in"</v>
+        <f>"verbTense(" &amp; ROW(A15)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; A15</f>
+        <v>verbTense(14, 1) = "integration of"</v>
       </c>
       <c r="E15" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>verbTense(14, 2) = "be involved in"</v>
+        <f>"verbTense(" &amp; ROW(A15)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B15</f>
+        <v>verbTense(14, 2) = "integrate"</v>
       </c>
       <c r="F15" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>"verbTense(" &amp; ROW(A15)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C15</f>
         <v>verbTense(14, 3) = "N"</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(14, 1) = "involved in" : verbTense(14, 2) = "be involved in" : verbTense(14, 3) = "N"</v>
+        <v>verbTense(14, 1) = "integration of" : verbTense(14, 2) = "integrate" : verbTense(14, 3) = "N"</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>verbTense(15, 1) = "involve in"</v>
+        <f>"verbTense(" &amp; ROW(A16)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; A16</f>
+        <v>verbTense(15, 1) = "interaction with"</v>
       </c>
       <c r="E16" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>verbTense(15, 2) = "be involved in"</v>
+        <f>"verbTense(" &amp; ROW(A16)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B16</f>
+        <v>verbTense(15, 2) = "interact with"</v>
       </c>
       <c r="F16" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>"verbTense(" &amp; ROW(A16)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C16</f>
         <v>verbTense(15, 3) = "N"</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(15, 1) = "involve in" : verbTense(15, 2) = "be involved in" : verbTense(15, 3) = "N"</v>
+        <v>verbTense(15, 1) = "interaction with" : verbTense(15, 2) = "interact with" : verbTense(15, 3) = "N"</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>verbTense(16, 1) = "participation in"</v>
+        <f>"verbTense(" &amp; ROW(A17)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; A17</f>
+        <v>verbTense(16, 1) = "involved in"</v>
       </c>
       <c r="E17" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>verbTense(16, 2) = "participate in"</v>
+        <f>"verbTense(" &amp; ROW(A17)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B17</f>
+        <v>verbTense(16, 2) = "be involved in"</v>
       </c>
       <c r="F17" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>"verbTense(" &amp; ROW(A17)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C17</f>
         <v>verbTense(16, 3) = "N"</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(16, 1) = "participation in" : verbTense(16, 2) = "participate in" : verbTense(16, 3) = "N"</v>
+        <v>verbTense(16, 1) = "involved in" : verbTense(16, 2) = "be involved in" : verbTense(16, 3) = "N"</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>verbTense(17, 1) = "preparation of"</v>
+        <f>"verbTense(" &amp; ROW(A18)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; A18</f>
+        <v>verbTense(17, 1) = "involve in"</v>
       </c>
       <c r="E18" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>verbTense(17, 2) = "prepare"</v>
+        <f>"verbTense(" &amp; ROW(A18)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B18</f>
+        <v>verbTense(17, 2) = "be involved in"</v>
       </c>
       <c r="F18" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>"verbTense(" &amp; ROW(A18)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C18</f>
         <v>verbTense(17, 3) = "N"</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(17, 1) = "preparation of" : verbTense(17, 2) = "prepare" : verbTense(17, 3) = "N"</v>
+        <v>verbTense(17, 1) = "involve in" : verbTense(17, 2) = "be involved in" : verbTense(17, 3) = "N"</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>verbTense(18, 1) = "prioritization of"</v>
+        <f>"verbTense(" &amp; ROW(A19)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; A19</f>
+        <v>verbTense(18, 1) = "participation in"</v>
       </c>
       <c r="E19" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>verbTense(18, 2) = "prioritize"</v>
+        <f>"verbTense(" &amp; ROW(A19)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B19</f>
+        <v>verbTense(18, 2) = "participate in"</v>
       </c>
       <c r="F19" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>"verbTense(" &amp; ROW(A19)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C19</f>
         <v>verbTense(18, 3) = "N"</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(18, 1) = "prioritization of" : verbTense(18, 2) = "prioritize" : verbTense(18, 3) = "N"</v>
+        <v>verbTense(18, 1) = "participation in" : verbTense(18, 2) = "participate in" : verbTense(18, 3) = "N"</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>verbTense(19, 1) = "review of"</v>
+        <f>"verbTense(" &amp; ROW(A20)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; A20</f>
+        <v>verbTense(19, 1) = "preparation of"</v>
       </c>
       <c r="E20" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>verbTense(19, 2) = "review"</v>
+        <f>"verbTense(" &amp; ROW(A20)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B20</f>
+        <v>verbTense(19, 2) = "prepare"</v>
       </c>
       <c r="F20" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>"verbTense(" &amp; ROW(A20)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C20</f>
         <v>verbTense(19, 3) = "N"</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(19, 1) = "review of" : verbTense(19, 2) = "review" : verbTense(19, 3) = "N"</v>
+        <v>verbTense(19, 1) = "preparation of" : verbTense(19, 2) = "prepare" : verbTense(19, 3) = "N"</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3" t="str">
+        <f>"verbTense(" &amp; ROW(A21)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; A21</f>
+        <v>verbTense(20, 1) = "prioritization of"</v>
+      </c>
+      <c r="E21" s="3" t="str">
+        <f>"verbTense(" &amp; ROW(A21)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B21</f>
+        <v>verbTense(20, 2) = "prioritize"</v>
+      </c>
+      <c r="F21" s="3" t="str">
+        <f>"verbTense(" &amp; ROW(A21)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C21</f>
+        <v>verbTense(20, 3) = "N"</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>verbTense(20, 1) = "prioritization of" : verbTense(20, 2) = "prioritize" : verbTense(20, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3" t="str">
+        <f>"verbTense(" &amp; ROW(A22)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; A22</f>
+        <v>verbTense(21, 1) = "review of"</v>
+      </c>
+      <c r="E22" s="3" t="str">
+        <f>"verbTense(" &amp; ROW(A22)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B22</f>
+        <v>verbTense(21, 2) = "review"</v>
+      </c>
+      <c r="F22" s="3" t="str">
+        <f>"verbTense(" &amp; ROW(A22)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C22</f>
+        <v>verbTense(21, 3) = "N"</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>verbTense(21, 1) = "review of" : verbTense(21, 2) = "review" : verbTense(21, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>verbTense(20, 1) = "understand of"</v>
-      </c>
-      <c r="E21" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>verbTense(20, 2) = "understand"</v>
-      </c>
-      <c r="F21" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>verbTense(20, 3) = "N"</v>
-      </c>
-      <c r="G21" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>verbTense(20, 1) = "understand of" : verbTense(20, 2) = "understand" : verbTense(20, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="C23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="3" t="str">
+        <f>"verbTense(" &amp; ROW(A23)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; A23</f>
+        <v>verbTense(22, 1) = "understand of"</v>
+      </c>
+      <c r="E23" s="3" t="str">
+        <f>"verbTense(" &amp; ROW(A23)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B23</f>
+        <v>verbTense(22, 2) = "understand"</v>
+      </c>
+      <c r="F23" s="3" t="str">
+        <f>"verbTense(" &amp; ROW(A23)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C23</f>
+        <v>verbTense(22, 3) = "N"</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>verbTense(22, 1) = "understand of" : verbTense(22, 2) = "understand" : verbTense(22, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>verbTense(21, 1) = ""</v>
-      </c>
-      <c r="E22" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>verbTense(21, 2) = ""</v>
-      </c>
-      <c r="F22" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>verbTense(21, 3) = "N"</v>
-      </c>
-      <c r="G22" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>verbTense(21, 1) = "" : verbTense(21, 2) = "" : verbTense(21, 3) = "N"</v>
+      <c r="C24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="5" t="str">
+        <f>"verbTense(" &amp; ROW(A24)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; A24</f>
+        <v>verbTense(23, 1) = ""</v>
+      </c>
+      <c r="E24" s="5" t="str">
+        <f>"verbTense(" &amp; ROW(A24)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B24</f>
+        <v>verbTense(23, 2) = ""</v>
+      </c>
+      <c r="F24" s="5" t="str">
+        <f>"verbTense(" &amp; ROW(A24)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C24</f>
+        <v>verbTense(23, 3) = "N"</v>
+      </c>
+      <c r="G24" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>verbTense(23, 1) = "" : verbTense(23, 2) = "" : verbTense(23, 3) = "N"</v>
       </c>
     </row>
   </sheetData>
